--- a/TestData/Litigation_Notice_Upload_Format (1).xlsx
+++ b/TestData/Litigation_Notice_Upload_Format (1).xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -17,6 +12,7 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A10:G27"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -749,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -973,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
